--- a/Altium project/cSLIM-shield/Project Outputs for cSLIM-shield/BOM/Bill of Materials-fixx-version1.xlsx
+++ b/Altium project/cSLIM-shield/Project Outputs for cSLIM-shield/BOM/Bill of Materials-fixx-version1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vetleba\Documents\SKOLE\Fordypningsprosjekt\IoF\Altium project\cSLIM-shield\Project Outputs for cSLIM-shield\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFDF39BD-AEAE-4785-A05A-F72324D6B2B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC769AFA-1B24-43A5-8DBB-7FE5E634ED9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-18120" yWindow="-120" windowWidth="18240" windowHeight="28440" xr2:uid="{42015810-0AE7-4008-9B25-C1B502286E88}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{42015810-0AE7-4008-9B25-C1B502286E88}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-cSLIM-shield" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,6 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Bill of Materials-cSLIM-shield'!$1:$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="278">
   <si>
     <t>Comment</t>
   </si>
@@ -355,9 +354,6 @@
     <t>SHDR2W64P0X254_1X2_737X660X1181P</t>
   </si>
   <si>
-    <t>70543-0001</t>
-  </si>
-  <si>
     <t>Conn_01x04_Male</t>
   </si>
   <si>
@@ -866,13 +862,22 @@
   </si>
   <si>
     <t>YJP1608-R001</t>
+  </si>
+  <si>
+    <t>MARKED</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>0705430001</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -882,6 +887,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -919,7 +931,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -1108,11 +1120,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1179,6 +1228,10 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1493,10 +1546,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{727B3C40-1C4E-4F64-A1B9-E89BE380D209}">
-  <dimension ref="A1:K82"/>
+  <dimension ref="A1:M82"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L45" sqref="L45"/>
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1510,7 +1563,7 @@
     <col min="8" max="8" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1530,19 +1583,22 @@
         <v>5</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+        <v>222</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -1567,8 +1623,11 @@
       <c r="H2" s="12"/>
       <c r="I2" s="13"/>
       <c r="J2" s="11"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M2" s="26" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -1582,7 +1641,7 @@
         <v>12</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F3" s="5">
         <v>20</v>
@@ -1593,8 +1652,11 @@
       <c r="H3" s="15"/>
       <c r="I3" s="15"/>
       <c r="J3" s="15"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M3" s="27" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -1608,7 +1670,7 @@
         <v>12</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F4" s="5">
         <v>1</v>
@@ -1619,8 +1681,11 @@
       <c r="H4" s="15"/>
       <c r="I4" s="15"/>
       <c r="J4" s="15"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M4" s="27" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -1634,7 +1699,7 @@
         <v>12</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F5" s="5">
         <v>1</v>
@@ -1645,8 +1710,11 @@
       <c r="H5" s="15"/>
       <c r="I5" s="15"/>
       <c r="J5" s="15"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M5" s="27" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
@@ -1660,7 +1728,7 @@
         <v>12</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F6" s="5">
         <v>5</v>
@@ -1671,8 +1739,11 @@
       <c r="H6" s="15"/>
       <c r="I6" s="15"/>
       <c r="J6" s="15"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M6" s="27" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
@@ -1686,7 +1757,7 @@
         <v>12</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F7" s="5">
         <v>1</v>
@@ -1697,8 +1768,11 @@
       <c r="H7" s="15"/>
       <c r="I7" s="15"/>
       <c r="J7" s="15"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M7" s="27" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>22</v>
       </c>
@@ -1712,7 +1786,7 @@
         <v>12</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F8" s="5">
         <v>1</v>
@@ -1723,8 +1797,11 @@
       <c r="H8" s="15"/>
       <c r="I8" s="15"/>
       <c r="J8" s="15"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M8" s="27" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>24</v>
       </c>
@@ -1738,7 +1815,7 @@
         <v>12</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F9" s="5">
         <v>1</v>
@@ -1749,8 +1826,11 @@
       <c r="H9" s="15"/>
       <c r="I9" s="15"/>
       <c r="J9" s="15"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M9" s="27" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>26</v>
       </c>
@@ -1775,8 +1855,11 @@
       <c r="J10" s="17">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M10" s="27" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>30</v>
       </c>
@@ -1790,7 +1873,7 @@
         <v>12</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F11" s="5">
         <v>1</v>
@@ -1801,8 +1884,11 @@
       <c r="H11" s="15"/>
       <c r="I11" s="15"/>
       <c r="J11" s="15"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M11" s="27" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>32</v>
       </c>
@@ -1816,7 +1902,7 @@
         <v>12</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F12" s="5">
         <v>2</v>
@@ -1827,8 +1913,11 @@
       <c r="H12" s="15"/>
       <c r="I12" s="15"/>
       <c r="J12" s="15"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M12" s="27" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>34</v>
       </c>
@@ -1842,7 +1931,7 @@
         <v>12</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F13" s="5">
         <v>2</v>
@@ -1853,8 +1942,11 @@
       <c r="H13" s="15"/>
       <c r="I13" s="15"/>
       <c r="J13" s="15"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M13" s="27" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>36</v>
       </c>
@@ -1868,7 +1960,7 @@
         <v>12</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F14" s="5">
         <v>2</v>
@@ -1879,8 +1971,11 @@
       <c r="H14" s="15"/>
       <c r="I14" s="15"/>
       <c r="J14" s="15"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M14" s="27" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>38</v>
       </c>
@@ -1894,7 +1989,7 @@
         <v>12</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F15" s="5">
         <v>2</v>
@@ -1905,8 +2000,11 @@
       <c r="H15" s="15"/>
       <c r="I15" s="15"/>
       <c r="J15" s="15"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M15" s="27" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>40</v>
       </c>
@@ -1920,19 +2018,22 @@
         <v>12</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F16" s="5">
         <v>1</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H16" s="15"/>
       <c r="I16" s="15"/>
       <c r="J16" s="15"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M16" s="27" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>42</v>
       </c>
@@ -1955,8 +2056,9 @@
       <c r="H17" s="15"/>
       <c r="I17" s="15"/>
       <c r="J17" s="15"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M17" s="27"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>44</v>
       </c>
@@ -1976,7 +2078,7 @@
         <v>1</v>
       </c>
       <c r="G18" s="16" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H18" s="17">
         <v>5</v>
@@ -1985,8 +2087,11 @@
       <c r="J18" s="17">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M18" s="27" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>48</v>
       </c>
@@ -2011,8 +2116,11 @@
       <c r="H19" s="15"/>
       <c r="I19" s="15"/>
       <c r="J19" s="15"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M19" s="27" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>52</v>
       </c>
@@ -2026,13 +2134,13 @@
         <v>12</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F20" s="5">
         <v>1</v>
       </c>
       <c r="G20" s="16" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H20" s="18"/>
       <c r="I20" s="18"/>
@@ -2040,10 +2148,13 @@
         <v>4</v>
       </c>
       <c r="K20" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+      <c r="M20" s="27" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>55</v>
       </c>
@@ -2057,7 +2168,7 @@
         <v>12</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F21" s="5">
         <v>2</v>
@@ -2071,10 +2182,13 @@
         <v>13</v>
       </c>
       <c r="K21" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+      <c r="M21" s="27" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>57</v>
       </c>
@@ -2088,7 +2202,7 @@
         <v>12</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F22" s="5">
         <v>1</v>
@@ -2099,8 +2213,11 @@
       <c r="H22" s="15"/>
       <c r="I22" s="15"/>
       <c r="J22" s="15"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M22" s="27" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>59</v>
       </c>
@@ -2120,15 +2237,18 @@
         <v>1</v>
       </c>
       <c r="G23" s="16" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H23" s="18"/>
       <c r="I23" s="18"/>
       <c r="J23" s="17">
         <v>4</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M23" s="27" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>63</v>
       </c>
@@ -2148,15 +2268,18 @@
         <v>3</v>
       </c>
       <c r="G24" s="16" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H24" s="18"/>
       <c r="I24" s="18"/>
       <c r="J24" s="17">
         <v>12</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M24" s="27" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>66</v>
       </c>
@@ -2176,15 +2299,18 @@
         <v>3</v>
       </c>
       <c r="G25" s="16" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H25" s="15"/>
       <c r="I25" s="15"/>
       <c r="J25" s="17">
         <v>12</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M25" s="27" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>70</v>
       </c>
@@ -2204,15 +2330,18 @@
         <v>1</v>
       </c>
       <c r="G26" s="16" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H26" s="15"/>
       <c r="I26" s="15"/>
       <c r="J26" s="17">
         <v>4</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M26" s="27" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>73</v>
       </c>
@@ -2232,15 +2361,18 @@
         <v>1</v>
       </c>
       <c r="G27" s="16" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H27" s="15"/>
       <c r="I27" s="15"/>
       <c r="J27" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M27" s="27" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>76</v>
       </c>
@@ -2260,15 +2392,18 @@
         <v>1</v>
       </c>
       <c r="G28" s="16" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H28" s="15"/>
       <c r="I28" s="15"/>
       <c r="J28" s="17">
         <v>4</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M28" s="27" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>79</v>
       </c>
@@ -2295,8 +2430,11 @@
       <c r="J29" s="17">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M29" s="27" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>82</v>
       </c>
@@ -2316,15 +2454,18 @@
         <v>1</v>
       </c>
       <c r="G30" s="16" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H30" s="15"/>
       <c r="I30" s="15"/>
       <c r="J30" s="17" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+      <c r="M30" s="27" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>85</v>
       </c>
@@ -2349,8 +2490,11 @@
       <c r="H31" s="15"/>
       <c r="I31" s="15"/>
       <c r="J31" s="15"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M31" s="27" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>89</v>
       </c>
@@ -2370,15 +2514,18 @@
         <v>1</v>
       </c>
       <c r="G32" s="20" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H32" s="15"/>
       <c r="I32" s="15"/>
       <c r="J32" s="17">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M32" s="27" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>92</v>
       </c>
@@ -2403,8 +2550,11 @@
       <c r="H33" s="15"/>
       <c r="I33" s="15"/>
       <c r="J33" s="15"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M33" s="27" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>96</v>
       </c>
@@ -2429,8 +2579,11 @@
       <c r="H34" s="15"/>
       <c r="I34" s="15"/>
       <c r="J34" s="15"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M34" s="27" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>98</v>
       </c>
@@ -2455,8 +2608,11 @@
       <c r="H35" s="15"/>
       <c r="I35" s="15"/>
       <c r="J35" s="15"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M35" s="27" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>98</v>
       </c>
@@ -2470,7 +2626,7 @@
         <v>104</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>105</v>
+        <v>277</v>
       </c>
       <c r="F36" s="5">
         <v>1</v>
@@ -2481,22 +2637,25 @@
       <c r="H36" s="15"/>
       <c r="I36" s="15"/>
       <c r="J36" s="15"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M36" s="27" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>99</v>
       </c>
       <c r="C37" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="E37" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>109</v>
       </c>
       <c r="F37" s="5">
         <v>1</v>
@@ -2507,22 +2666,25 @@
       <c r="H37" s="15"/>
       <c r="I37" s="15"/>
       <c r="J37" s="15"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M37" s="27" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>99</v>
       </c>
       <c r="C38" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D38" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="E38" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>113</v>
       </c>
       <c r="F38" s="5">
         <v>1</v>
@@ -2533,50 +2695,56 @@
       <c r="H38" s="15"/>
       <c r="I38" s="15"/>
       <c r="J38" s="15"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M38" s="27" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>99</v>
       </c>
       <c r="C39" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D39" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="D39" s="1" t="s">
-        <v>116</v>
-      </c>
       <c r="E39" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F39" s="5">
         <v>1</v>
       </c>
       <c r="G39" s="16" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H39" s="15"/>
       <c r="I39" s="15"/>
       <c r="J39" s="17">
         <v>4</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M39" s="27" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>99</v>
       </c>
       <c r="C40" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D40" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="E40" s="1" t="s">
         <v>119</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>120</v>
       </c>
       <c r="F40" s="5">
         <v>2</v>
@@ -2587,22 +2755,25 @@
       <c r="H40" s="15"/>
       <c r="I40" s="15"/>
       <c r="J40" s="15"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M40" s="27" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>99</v>
       </c>
       <c r="C41" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D41" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D41" s="1" t="s">
-        <v>123</v>
-      </c>
       <c r="E41" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F41" s="5">
         <v>1</v>
@@ -2615,22 +2786,25 @@
       <c r="J41" s="17">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M41" s="27" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>99</v>
       </c>
       <c r="C42" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D42" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="D42" s="1" t="s">
-        <v>126</v>
-      </c>
       <c r="E42" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F42" s="5">
         <v>2</v>
@@ -2643,22 +2817,25 @@
       <c r="J42" s="17">
         <v>10</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M42" s="27" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>99</v>
       </c>
       <c r="C43" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D43" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="E43" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>130</v>
       </c>
       <c r="F43" s="5">
         <v>2</v>
@@ -2671,22 +2848,25 @@
       <c r="J43" s="17">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M43" s="27" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>99</v>
       </c>
       <c r="C44" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D44" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="D44" s="1" t="s">
-        <v>133</v>
-      </c>
       <c r="E44" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F44" s="5">
         <v>2</v>
@@ -2699,22 +2879,25 @@
       <c r="J44" s="17">
         <v>28</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M44" s="27" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>99</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F45" s="5">
         <v>1</v>
@@ -2725,22 +2908,25 @@
       <c r="H45" s="15"/>
       <c r="I45" s="15"/>
       <c r="J45" s="15"/>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M45" s="27" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>99</v>
       </c>
       <c r="C46" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D46" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="D46" s="1" t="s">
-        <v>137</v>
-      </c>
       <c r="E46" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F46" s="5">
         <v>1</v>
@@ -2751,22 +2937,25 @@
       <c r="H46" s="15"/>
       <c r="I46" s="15"/>
       <c r="J46" s="15"/>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M46" s="27" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>99</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F47" s="5">
         <v>1</v>
@@ -2777,30 +2966,33 @@
       <c r="H47" s="15"/>
       <c r="I47" s="15"/>
       <c r="J47" s="17" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+        <v>273</v>
+      </c>
+      <c r="M47" s="27" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C48" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D48" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="E48" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="E48" s="1" t="s">
-        <v>142</v>
-      </c>
       <c r="F48" s="5">
         <v>1</v>
       </c>
       <c r="G48" s="16" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H48" s="17">
         <v>5</v>
@@ -2809,22 +3001,25 @@
       <c r="J48" s="17">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M48" s="27" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C49" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D49" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="D49" s="1" t="s">
-        <v>145</v>
-      </c>
       <c r="E49" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F49" s="5">
         <v>1</v>
@@ -2835,24 +3030,27 @@
       <c r="H49" s="15"/>
       <c r="I49" s="15"/>
       <c r="J49" s="15" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+        <v>231</v>
+      </c>
+      <c r="M49" s="27" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F50" s="5">
         <v>1</v>
@@ -2863,22 +3061,25 @@
       <c r="H50" s="15"/>
       <c r="I50" s="15"/>
       <c r="J50" s="15"/>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M50" s="27" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F51" s="5">
         <v>1</v>
@@ -2889,22 +3090,25 @@
       <c r="H51" s="21"/>
       <c r="I51" s="15"/>
       <c r="J51" s="15"/>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M51" s="27" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F52" s="5">
         <v>1</v>
@@ -2915,22 +3119,25 @@
       <c r="H52" s="15"/>
       <c r="I52" s="15"/>
       <c r="J52" s="15"/>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M52" s="27" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B53" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="C53" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="D53" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="D53" s="1" t="s">
-        <v>155</v>
-      </c>
       <c r="E53" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F53" s="5">
         <v>1</v>
@@ -2943,22 +3150,25 @@
       <c r="J53" s="17">
         <v>4</v>
       </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M53" s="27" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C54" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B54" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C54" s="1" t="s">
+      <c r="D54" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="D54" s="1" t="s">
-        <v>158</v>
-      </c>
       <c r="E54" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F54" s="5">
         <v>1</v>
@@ -2971,22 +3181,25 @@
       <c r="J54" s="17">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M54" s="27" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="B55" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>160</v>
-      </c>
       <c r="D55" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E55" s="1" t="s">
         <v>158</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>159</v>
       </c>
       <c r="F55" s="5">
         <v>1</v>
@@ -2999,22 +3212,25 @@
       <c r="J55" s="17">
         <v>4</v>
       </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M55" s="27" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C56" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="B56" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>162</v>
-      </c>
       <c r="D56" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F56" s="5">
         <v>2</v>
@@ -3027,8 +3243,11 @@
       <c r="J56" s="17">
         <v>8</v>
       </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M56" s="27" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -3039,22 +3258,23 @@
       <c r="H57" s="15"/>
       <c r="I57" s="15"/>
       <c r="J57" s="15"/>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M57" s="27"/>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B58" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C58" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="D58" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="D58" s="1" t="s">
+      <c r="E58" s="1" t="s">
         <v>165</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>166</v>
       </c>
       <c r="F58" s="5">
         <v>3</v>
@@ -3065,28 +3285,31 @@
       <c r="H58" s="15"/>
       <c r="I58" s="15"/>
       <c r="J58" s="21"/>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M58" s="27" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B59" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="C59" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="D59" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="D59" s="1" t="s">
-        <v>170</v>
-      </c>
       <c r="E59" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F59" s="5">
         <v>1</v>
       </c>
       <c r="G59" s="16" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H59" s="17">
         <v>5</v>
@@ -3095,22 +3318,25 @@
       <c r="J59" s="17">
         <v>12</v>
       </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M59" s="27" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C60" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D60" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="D60" s="1" t="s">
-        <v>173</v>
-      </c>
       <c r="E60" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F60" s="5">
         <v>19</v>
@@ -3121,22 +3347,25 @@
       <c r="H60" s="15"/>
       <c r="I60" s="15"/>
       <c r="J60" s="15"/>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M60" s="27" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F61" s="5">
         <v>1</v>
@@ -3149,22 +3378,25 @@
       <c r="J61" s="17">
         <v>8</v>
       </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M61" s="27" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F62" s="5">
         <v>2</v>
@@ -3177,22 +3409,25 @@
       <c r="J62" s="17">
         <v>100</v>
       </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M62" s="27" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F63" s="5">
         <v>2</v>
@@ -3205,22 +3440,25 @@
       <c r="J63" s="15">
         <v>3</v>
       </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M63" s="27" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F64" s="5">
         <v>12</v>
@@ -3231,22 +3469,25 @@
       <c r="H64" s="15"/>
       <c r="I64" s="15"/>
       <c r="J64" s="25"/>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M64" s="27" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F65" s="5">
         <v>2</v>
@@ -3257,22 +3498,25 @@
       <c r="H65" s="15"/>
       <c r="I65" s="15"/>
       <c r="J65" s="15"/>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M65" s="27" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F66" s="5">
         <v>3</v>
@@ -3285,22 +3529,25 @@
       <c r="J66" s="17">
         <v>20</v>
       </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M66" s="27" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F67" s="5">
         <v>2</v>
@@ -3311,22 +3558,25 @@
       <c r="H67" s="15"/>
       <c r="I67" s="15"/>
       <c r="J67" s="15"/>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M67" s="27" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F68" s="5">
         <v>3</v>
@@ -3337,22 +3587,25 @@
       <c r="H68" s="15"/>
       <c r="I68" s="15"/>
       <c r="J68" s="15"/>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M68" s="27" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F69" s="5">
         <v>1</v>
@@ -3365,22 +3618,25 @@
       <c r="J69" s="17">
         <v>8</v>
       </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M69" s="27" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F70" s="5">
         <v>3</v>
@@ -3391,22 +3647,25 @@
       <c r="H70" s="15"/>
       <c r="I70" s="15"/>
       <c r="J70" s="15"/>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M70" s="27" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F71" s="5">
         <v>1</v>
@@ -3417,22 +3676,25 @@
       <c r="H71" s="15"/>
       <c r="I71" s="15"/>
       <c r="J71" s="15"/>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M71" s="27" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F72" s="5">
         <v>1</v>
@@ -3445,22 +3707,25 @@
       <c r="J72" s="17">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M72" s="27" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F73" s="5">
         <v>1</v>
@@ -3471,22 +3736,25 @@
       <c r="H73" s="15"/>
       <c r="I73" s="15"/>
       <c r="J73" s="15"/>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M73" s="27" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F74" s="5">
         <v>1</v>
@@ -3499,22 +3767,25 @@
       <c r="J74" s="17">
         <v>20</v>
       </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M74" s="27" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F75" s="5">
         <v>2</v>
@@ -3525,22 +3796,25 @@
       <c r="H75" s="15"/>
       <c r="I75" s="15"/>
       <c r="J75" s="15"/>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M75" s="27" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F76" s="5">
         <v>1</v>
@@ -3553,22 +3827,25 @@
       <c r="J76" s="17">
         <v>50</v>
       </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M76" s="27" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F77" s="5">
         <v>2</v>
@@ -3581,22 +3858,25 @@
       <c r="J77" s="17">
         <v>100</v>
       </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M77" s="27" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F78" s="5">
         <v>2</v>
@@ -3609,22 +3889,25 @@
       <c r="J78" s="17">
         <v>100</v>
       </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M78" s="27" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B79" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="C79" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C79" s="1" t="s">
+      <c r="D79" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="D79" s="1" t="s">
-        <v>213</v>
-      </c>
       <c r="E79" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F79" s="5">
         <v>1</v>
@@ -3637,78 +3920,87 @@
       <c r="J79" s="17">
         <v>4</v>
       </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M79" s="29" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>60</v>
       </c>
       <c r="C80" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D80" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="D80" s="1" t="s">
-        <v>216</v>
-      </c>
       <c r="E80" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F80" s="5">
         <v>1</v>
       </c>
       <c r="G80" s="16" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H80" s="15"/>
       <c r="I80" s="15"/>
       <c r="J80" s="17">
         <v>4</v>
       </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M80" s="27" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>60</v>
       </c>
       <c r="C81" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D81" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="D81" s="1" t="s">
-        <v>219</v>
-      </c>
       <c r="E81" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F81" s="5">
         <v>1</v>
       </c>
       <c r="G81" s="16" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H81" s="15"/>
       <c r="I81" s="15"/>
       <c r="J81" s="17">
         <v>5</v>
       </c>
-    </row>
-    <row r="82" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M81" s="27" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>60</v>
       </c>
       <c r="C82" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D82" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="D82" s="1" t="s">
-        <v>222</v>
-      </c>
       <c r="E82" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F82" s="5">
         <v>1</v>
@@ -3719,6 +4011,9 @@
       <c r="J82" s="23">
         <v>4</v>
       </c>
+      <c r="M82" s="28" t="s">
+        <v>276</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
